--- a/prep_and_checklists/Leila Benirschke Day 1/Leila Benirschke_2025-05-02_0.xlsx
+++ b/prep_and_checklists/Leila Benirschke Day 1/Leila Benirschke_2025-05-02_0.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Leila Benirschke/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/davidcuvin/purveyor_project/prep_and_checklists/Leila Benirschke Day 1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29D535A-6C61-944A-A1D0-D1E587FFEA9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1BE0023-6DF6-7D4A-89E5-A9CC01B4BEC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35060" yWindow="440" windowWidth="30240" windowHeight="17840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="prep_sheet" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Lobster Roll</t>
   </si>
@@ -131,15 +131,9 @@
     <t>Rosemary salt</t>
   </si>
   <si>
-    <t>2lbs</t>
-  </si>
-  <si>
     <t>100 pcs</t>
   </si>
   <si>
-    <t>1/4 recipe</t>
-  </si>
-  <si>
     <t>3 loaves</t>
   </si>
   <si>
@@ -164,14 +158,38 @@
     <t>1 pint</t>
   </si>
   <si>
-    <t>Leila Benirschke Day 1 20 Guests 6:00 pm 8:00 pm</t>
+    <t>4lbs</t>
+  </si>
+  <si>
+    <t>1/2 recipe</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>4lbs cooked</t>
+  </si>
+  <si>
+    <t>*in-house</t>
+  </si>
+  <si>
+    <t>1cs</t>
+  </si>
+  <si>
+    <t>3 x loaves</t>
+  </si>
+  <si>
+    <t>Leila Benirschke Day 1 20 Thursday, May 8, 2025 Guests 6:00 pm 8:00 pm</t>
+  </si>
+  <si>
+    <t>2 lbs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -204,6 +222,13 @@
       <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -247,7 +272,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -257,6 +282,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,7 +587,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -571,7 +597,7 @@
   <sheetData>
     <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -592,7 +618,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -600,7 +626,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -608,7 +634,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -628,7 +654,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -636,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -644,7 +670,7 @@
         <v>8</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -652,7 +678,7 @@
         <v>9</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -660,7 +686,7 @@
         <v>10</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -668,7 +694,7 @@
         <v>11</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -676,7 +702,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -692,7 +718,7 @@
         <v>34</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="19" x14ac:dyDescent="0.2">
@@ -700,7 +726,7 @@
         <v>35</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -711,12 +737,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A2:C11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22.1640625" customWidth="1"/>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="32" customWidth="1"/>
+  </cols>
   <sheetData>
+    <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
     <row r="2" spans="1:3" ht="19" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>13</v>
@@ -732,7 +770,9 @@
       <c r="A3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="3"/>
+      <c r="B3" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C3" s="3" t="s">
         <v>17</v>
       </c>
@@ -741,16 +781,20 @@
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="3"/>
+      <c r="B4" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="3"/>
+      <c r="B5" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C5" s="3" t="s">
         <v>21</v>
       </c>
@@ -759,7 +803,9 @@
       <c r="A6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="3"/>
+      <c r="B6" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="C6" s="3" t="s">
         <v>17</v>
       </c>
@@ -768,7 +814,9 @@
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>47</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>24</v>
       </c>
@@ -777,25 +825,31 @@
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>51</v>
+      </c>
       <c r="C8" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C9" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" ht="21" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="C10" s="3" t="s">
         <v>29</v>
       </c>
@@ -804,7 +858,9 @@
       <c r="A11" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>53</v>
+      </c>
       <c r="C11" s="3" t="s">
         <v>31</v>
       </c>
